--- a/Tools/ExcelTool/Excel/PrefabConfig.xlsx
+++ b/Tools/ExcelTool/Excel/PrefabConfig.xlsx
@@ -38,9 +38,6 @@
     <t>Assets/Download/Role/RolePrefab/Role/EMP_Tower_level_1.prefab</t>
   </si>
   <si>
-    <t>Assets/Download/Role/RolePrefab/Role/Helicopter.prefab</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Role/Role.prefab</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -511,89 +511,89 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>

--- a/Tools/ExcelTool/Excel/PrefabConfig.xlsx
+++ b/Tools/ExcelTool/Excel/PrefabConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>IdClass</t>
   </si>
@@ -35,9 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Download/Role/RolePrefab/Role/EMP_Tower_level_1.prefab</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -106,6 +103,19 @@
   </si>
   <si>
     <t>Assets/Download/Role/RolePrefab/Role/Role.prefab</t>
+  </si>
+  <si>
+    <t>TowerPointTrigger</t>
+  </si>
+  <si>
+    <t>防御塔为u之触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/CommonPrefab/TowerPointTrigger.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Role/Role_Tower.prefab</t>
   </si>
 </sst>
 </file>
@@ -485,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -511,89 +521,89 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -607,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -616,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
         <v>60</v>
@@ -636,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -645,13 +655,42 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
         <v>60</v>
       </c>
       <c r="J6" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>11001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>120</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
